--- a/locales/Translations/FR.XLSX
+++ b/locales/Translations/FR.XLSX
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dossiers.dgt.cec.eu.int\dossiers\DIGIT\DIGIT-2020-00110\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ghesqol\AppData\Local\CATE\DGT\Dossiers\DIGIT\DIGIT-2020-00110\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5589,16 +5589,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="1"/>
-      </rPr>
-      <t>Remplissage</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="1"/>
@@ -10177,6 +10167,9 @@
       </rPr>
       <t>Number of elements other than 1</t>
     </r>
+  </si>
+  <si>
+    <t>Pad</t>
   </si>
 </sst>
 </file>
@@ -10513,8 +10506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="B161" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -12358,1492 +12351,1492 @@
         <v>499</v>
       </c>
       <c r="C167" t="s">
-        <v>500</v>
+        <v>912</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="B168" s="1" t="s">
+      <c r="C168" t="s">
         <v>502</v>
-      </c>
-      <c r="C168" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="C169" t="s">
         <v>505</v>
-      </c>
-      <c r="C169" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" t="s">
         <v>508</v>
-      </c>
-      <c r="C170" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="C171" t="s">
         <v>511</v>
-      </c>
-      <c r="C171" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" t="s">
         <v>514</v>
-      </c>
-      <c r="C172" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" t="s">
         <v>517</v>
-      </c>
-      <c r="C173" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" t="s">
         <v>520</v>
-      </c>
-      <c r="C174" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="C175" t="s">
         <v>523</v>
-      </c>
-      <c r="C175" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="C176" t="s">
         <v>526</v>
-      </c>
-      <c r="C176" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" t="s">
         <v>529</v>
-      </c>
-      <c r="C177" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" t="s">
         <v>532</v>
-      </c>
-      <c r="C178" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" t="s">
         <v>535</v>
-      </c>
-      <c r="C179" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" t="s">
         <v>538</v>
-      </c>
-      <c r="C180" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" t="s">
         <v>541</v>
-      </c>
-      <c r="C181" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" t="s">
         <v>544</v>
-      </c>
-      <c r="C182" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C183" t="s">
         <v>547</v>
-      </c>
-      <c r="C183" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C184" t="s">
         <v>550</v>
-      </c>
-      <c r="C184" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" t="s">
         <v>553</v>
-      </c>
-      <c r="C185" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" t="s">
         <v>556</v>
-      </c>
-      <c r="C186" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>558</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="C187" t="s">
         <v>559</v>
-      </c>
-      <c r="C187" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="B188" s="1" t="s">
+      <c r="C188" t="s">
         <v>562</v>
-      </c>
-      <c r="C188" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" t="s">
         <v>565</v>
-      </c>
-      <c r="C189" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="C190" t="s">
         <v>568</v>
-      </c>
-      <c r="C190" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="C191" t="s">
         <v>571</v>
-      </c>
-      <c r="C191" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="C192" t="s">
         <v>574</v>
-      </c>
-      <c r="C192" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C193" t="s">
         <v>577</v>
-      </c>
-      <c r="C193" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="C194" t="s">
         <v>580</v>
-      </c>
-      <c r="C194" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="C195" t="s">
         <v>583</v>
-      </c>
-      <c r="C195" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="C196" t="s">
         <v>586</v>
-      </c>
-      <c r="C196" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="C197" t="s">
         <v>589</v>
-      </c>
-      <c r="C197" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="C198" t="s">
         <v>592</v>
-      </c>
-      <c r="C198" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>594</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="C199" t="s">
         <v>595</v>
-      </c>
-      <c r="C199" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B200" s="1" t="s">
+      <c r="C200" t="s">
         <v>598</v>
-      </c>
-      <c r="C200" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" t="s">
         <v>601</v>
-      </c>
-      <c r="C201" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="B202" s="1" t="s">
+      <c r="C202" t="s">
         <v>604</v>
-      </c>
-      <c r="C202" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="B203" s="1" t="s">
+      <c r="C203" t="s">
         <v>607</v>
-      </c>
-      <c r="C203" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" t="s">
         <v>610</v>
-      </c>
-      <c r="C204" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" t="s">
         <v>613</v>
-      </c>
-      <c r="C205" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" t="s">
         <v>616</v>
-      </c>
-      <c r="C206" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="B207" s="1" t="s">
+      <c r="C207" t="s">
         <v>619</v>
-      </c>
-      <c r="C207" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B208" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="B208" s="1" t="s">
+      <c r="C208" t="s">
         <v>622</v>
-      </c>
-      <c r="C208" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="B209" s="1" t="s">
+      <c r="C209" t="s">
         <v>625</v>
-      </c>
-      <c r="C209" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" t="s">
         <v>628</v>
-      </c>
-      <c r="C210" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" t="s">
         <v>631</v>
-      </c>
-      <c r="C211" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" t="s">
         <v>634</v>
-      </c>
-      <c r="C212" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B213" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="B213" s="1" t="s">
+      <c r="C213" t="s">
         <v>637</v>
-      </c>
-      <c r="C213" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B214" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="B214" s="1" t="s">
+      <c r="C214" t="s">
         <v>640</v>
-      </c>
-      <c r="C214" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B215" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B215" s="1" t="s">
+      <c r="C215" t="s">
         <v>643</v>
-      </c>
-      <c r="C215" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="C216" t="s">
         <v>646</v>
-      </c>
-      <c r="C216" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B217" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B217" s="1" t="s">
+      <c r="C217" t="s">
         <v>649</v>
-      </c>
-      <c r="C217" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B218" s="1" t="s">
+      <c r="C218" t="s">
         <v>652</v>
-      </c>
-      <c r="C218" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B219" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="B219" s="1" t="s">
+      <c r="C219" t="s">
         <v>655</v>
-      </c>
-      <c r="C219" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B220" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="B220" s="1" t="s">
+      <c r="C220" t="s">
         <v>658</v>
-      </c>
-      <c r="C220" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B221" s="1" t="s">
+      <c r="C221" t="s">
         <v>661</v>
-      </c>
-      <c r="C221" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B222" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="B222" s="1" t="s">
+      <c r="C222" t="s">
         <v>664</v>
-      </c>
-      <c r="C222" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B223" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B223" s="1" t="s">
+      <c r="C223" t="s">
         <v>667</v>
-      </c>
-      <c r="C223" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B224" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="C224" t="s">
         <v>670</v>
-      </c>
-      <c r="C224" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" t="s">
         <v>673</v>
-      </c>
-      <c r="C225" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" t="s">
         <v>676</v>
-      </c>
-      <c r="C226" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B227" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="B227" s="1" t="s">
+      <c r="C227" t="s">
         <v>679</v>
-      </c>
-      <c r="C227" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B228" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B228" s="1" t="s">
+      <c r="C228" t="s">
         <v>682</v>
-      </c>
-      <c r="C228" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B229" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B229" s="1" t="s">
+      <c r="C229" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="B230" s="1" t="s">
+      <c r="C230" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B231" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B231" s="1" t="s">
+      <c r="C231" t="s">
         <v>691</v>
-      </c>
-      <c r="C231" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="B232" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="B232" s="1" t="s">
+      <c r="C232" t="s">
         <v>694</v>
-      </c>
-      <c r="C232" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="B233" s="1" t="s">
+      <c r="C233" t="s">
         <v>697</v>
-      </c>
-      <c r="C233" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B234" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="B234" s="1" t="s">
+      <c r="C234" t="s">
         <v>700</v>
-      </c>
-      <c r="C234" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B235" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="B235" s="1" t="s">
+      <c r="C235" t="s">
         <v>703</v>
-      </c>
-      <c r="C235" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B236" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="B236" s="1" t="s">
+      <c r="C236" t="s">
         <v>706</v>
-      </c>
-      <c r="C236" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="B237" s="1" t="s">
+      <c r="C237" t="s">
         <v>709</v>
-      </c>
-      <c r="C237" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B238" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B238" s="1" t="s">
+      <c r="C238" t="s">
         <v>712</v>
-      </c>
-      <c r="C238" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="B239" s="1" t="s">
+      <c r="C239" t="s">
         <v>715</v>
-      </c>
-      <c r="C239" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="C240" t="s">
         <v>718</v>
-      </c>
-      <c r="C240" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B241" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B241" s="1" t="s">
+      <c r="C241" t="s">
         <v>721</v>
-      </c>
-      <c r="C241" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="C242" t="s">
         <v>724</v>
-      </c>
-      <c r="C242" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B243" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="B243" s="1" t="s">
+      <c r="C243" t="s">
         <v>727</v>
-      </c>
-      <c r="C243" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="B244" s="1" t="s">
+      <c r="C244" t="s">
         <v>730</v>
-      </c>
-      <c r="C244" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B245" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B245" s="1" t="s">
+      <c r="C245" t="s">
         <v>733</v>
-      </c>
-      <c r="C245" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B246" s="1" t="s">
+      <c r="C246" t="s">
         <v>736</v>
-      </c>
-      <c r="C246" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B247" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B247" s="1" t="s">
+      <c r="C247" t="s">
         <v>739</v>
-      </c>
-      <c r="C247" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B248" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="B248" s="1" t="s">
+      <c r="C248" t="s">
         <v>742</v>
-      </c>
-      <c r="C248" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B249" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="C249" t="s">
         <v>745</v>
-      </c>
-      <c r="C249" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="B250" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B250" s="1" t="s">
+      <c r="C250" t="s">
         <v>748</v>
-      </c>
-      <c r="C250" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="C251" t="s">
         <v>751</v>
-      </c>
-      <c r="C251" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="C252" t="s">
         <v>754</v>
-      </c>
-      <c r="C252" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="C253" t="s">
         <v>757</v>
-      </c>
-      <c r="C253" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="B254" s="1" t="s">
+      <c r="C254" t="s">
         <v>760</v>
-      </c>
-      <c r="C254" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="B255" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B255" s="1" t="s">
+      <c r="C255" t="s">
         <v>763</v>
-      </c>
-      <c r="C255" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="C256" t="s">
         <v>766</v>
-      </c>
-      <c r="C256" t="s">
-        <v>767</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="C257" t="s">
         <v>769</v>
-      </c>
-      <c r="C257" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="C258" t="s">
         <v>772</v>
-      </c>
-      <c r="C258" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="C259" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="B260" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="B260" s="1" t="s">
+      <c r="C260" t="s">
         <v>778</v>
-      </c>
-      <c r="C260" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="C261" s="2" t="s">
         <v>781</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="C262" t="s">
         <v>784</v>
-      </c>
-      <c r="C262" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="C263" s="2" t="s">
         <v>787</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="C264" t="s">
         <v>790</v>
-      </c>
-      <c r="C264" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="C265" s="2" t="s">
         <v>793</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="C266" t="s">
         <v>796</v>
-      </c>
-      <c r="C266" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="C267" t="s">
         <v>799</v>
-      </c>
-      <c r="C267" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="C268" t="s">
         <v>802</v>
-      </c>
-      <c r="C268" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="C269" t="s">
         <v>805</v>
-      </c>
-      <c r="C269" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="C270" t="s">
         <v>808</v>
-      </c>
-      <c r="C270" t="s">
-        <v>809</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>810</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="C271" t="s">
         <v>811</v>
-      </c>
-      <c r="C271" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="C272" t="s">
         <v>814</v>
-      </c>
-      <c r="C272" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="C273" t="s">
         <v>817</v>
-      </c>
-      <c r="C273" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="C274" t="s">
         <v>820</v>
-      </c>
-      <c r="C274" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="C275" t="s">
         <v>823</v>
-      </c>
-      <c r="C275" t="s">
-        <v>824</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B276" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="B276" s="1" t="s">
+      <c r="C276" t="s">
         <v>826</v>
-      </c>
-      <c r="C276" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="C277" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B278" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B278" s="1" t="s">
+      <c r="C278" t="s">
         <v>832</v>
-      </c>
-      <c r="C278" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="C279" t="s">
         <v>835</v>
-      </c>
-      <c r="C279" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="C280" s="2" t="s">
         <v>838</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="C281" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="C282" t="s">
         <v>844</v>
-      </c>
-      <c r="C282" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="C283" t="s">
         <v>847</v>
-      </c>
-      <c r="C283" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="B284" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="B284" s="1" t="s">
+      <c r="C284" t="s">
         <v>850</v>
-      </c>
-      <c r="C284" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="C285" t="s">
         <v>853</v>
-      </c>
-      <c r="C285" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="C286" t="s">
         <v>856</v>
-      </c>
-      <c r="C286" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="C287" t="s">
         <v>859</v>
-      </c>
-      <c r="C287" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="C288" t="s">
         <v>862</v>
-      </c>
-      <c r="C288" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B289" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="B289" s="1" t="s">
+      <c r="C289" t="s">
         <v>865</v>
-      </c>
-      <c r="C289" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="B290" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="B290" s="1" t="s">
+      <c r="C290" t="s">
         <v>868</v>
-      </c>
-      <c r="C290" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B291" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="B291" s="1" t="s">
+      <c r="C291" t="s">
         <v>871</v>
-      </c>
-      <c r="C291" t="s">
-        <v>872</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="B292" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="B292" s="1" t="s">
+      <c r="C292" t="s">
         <v>874</v>
-      </c>
-      <c r="C292" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B293" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="B293" s="1" t="s">
+      <c r="C293" t="s">
         <v>877</v>
-      </c>
-      <c r="C293" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B294" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="B294" s="1" t="s">
+      <c r="C294" t="s">
         <v>880</v>
-      </c>
-      <c r="C294" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B295" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="B295" s="1" t="s">
+      <c r="C295" t="s">
         <v>883</v>
-      </c>
-      <c r="C295" t="s">
-        <v>884</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B296" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="B296" s="1" t="s">
+      <c r="C296" t="s">
         <v>886</v>
-      </c>
-      <c r="C296" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B297" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="B297" s="1" t="s">
+      <c r="C297" t="s">
         <v>889</v>
-      </c>
-      <c r="C297" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="B298" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="B298" s="1" t="s">
+      <c r="C298" t="s">
         <v>892</v>
-      </c>
-      <c r="C298" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B299" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="B299" s="1" t="s">
+      <c r="C299" t="s">
         <v>895</v>
-      </c>
-      <c r="C299" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B300" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="B300" s="1" t="s">
+      <c r="C300" t="s">
         <v>898</v>
-      </c>
-      <c r="C300" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B301" s="1" t="s">
         <v>900</v>
       </c>
-      <c r="B301" s="1" t="s">
+      <c r="C301" t="s">
         <v>901</v>
-      </c>
-      <c r="C301" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B302" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="B302" s="1" t="s">
+      <c r="C302" t="s">
         <v>904</v>
-      </c>
-      <c r="C302" t="s">
-        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -13868,7 +13861,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B1" s="1"/>
     </row>
@@ -13878,13 +13871,13 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B4" s="1"/>
     </row>
@@ -13894,18 +13887,18 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>912</v>
       </c>
     </row>
   </sheetData>
